--- a/Sheets/literatureNotes.xlsx
+++ b/Sheets/literatureNotes.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="63">
   <si>
     <t>2015 Insectes Sociaux review</t>
   </si>
@@ -150,10 +150,64 @@
     <t>zoogeographical elements, glaciation history</t>
   </si>
   <si>
-    <t>nested assemblages, implied range increase with elevation</t>
-  </si>
-  <si>
     <t>broad range species and climatic extremes</t>
+  </si>
+  <si>
+    <t>nested assemblages, assert that range increases with elevation</t>
+  </si>
+  <si>
+    <t>indirect effects of temp/precip/productivity; broader ranges at low els - lowland attrition</t>
+  </si>
+  <si>
+    <t>competition limits lower boundaries</t>
+  </si>
+  <si>
+    <t>history of el studies</t>
+  </si>
+  <si>
+    <t>value of el studies</t>
+  </si>
+  <si>
+    <t>high G/SF richness (history?); larger ranges at higher elevations</t>
+  </si>
+  <si>
+    <t>conservation</t>
+  </si>
+  <si>
+    <t>small ranges; large ranges at high el but non-independent; maybe zonation, just high beta</t>
+  </si>
+  <si>
+    <t>a few points with lower turnover.. distinct communities?</t>
+  </si>
+  <si>
+    <t>high similarity btw adjacent elevations; litter moisture and depth</t>
+  </si>
+  <si>
+    <t>suggested dominant spp at lowlands; small ranges</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Bruhl1999</t>
+  </si>
+  <si>
+    <t>ants are important</t>
+  </si>
+  <si>
+    <t>high turnover btw sites; small ranges; declining richness, but starting at 560m</t>
+  </si>
+  <si>
+    <t>Geraghty2007</t>
+  </si>
+  <si>
+    <t>elevational range size correlates with latitudinal range size</t>
+  </si>
+  <si>
+    <t>body size</t>
+  </si>
+  <si>
+    <t>no correlation of body or colony size with elevation</t>
   </si>
 </sst>
 </file>
@@ -534,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -797,10 +851,10 @@
         <v>22</v>
       </c>
       <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
         <v>43</v>
-      </c>
-      <c r="H12" t="s">
-        <v>44</v>
       </c>
       <c r="I12" t="s">
         <v>38</v>
@@ -819,6 +873,21 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
@@ -833,6 +902,18 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
@@ -847,6 +928,21 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>52</v>
+      </c>
+      <c r="I15" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
@@ -861,8 +957,20 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -874,6 +982,73 @@
       </c>
       <c r="D17" t="s">
         <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18">
+        <v>1999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19">
+        <v>2007</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>23</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
